--- a/data/trans_dic/P16A03-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A03-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.007423160537111425</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.02730340547783605</v>
+        <v>0.02730340547783606</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.05954966241613721</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01023395672140165</v>
+        <v>0.01030793941898517</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.00286544556735657</v>
+        <v>0.002879571149882519</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002652161405843156</v>
+        <v>0.002923382962259727</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0177503005556736</v>
+        <v>0.0176574354936721</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04383863193971652</v>
+        <v>0.0430752961233961</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03723926752645594</v>
+        <v>0.03798759496487795</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0372122996498585</v>
+        <v>0.03559661915313381</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03347500324128751</v>
+        <v>0.03485184817084123</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02945042381009659</v>
+        <v>0.02992902646191531</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02234826536128318</v>
+        <v>0.02297876384835073</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02056257389179457</v>
+        <v>0.02075417556143417</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02863005980250817</v>
+        <v>0.0283431693840991</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03292995881259701</v>
+        <v>0.03319979360327802</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01653858358835533</v>
+        <v>0.01552466843174356</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01512088296873536</v>
+        <v>0.01647812528533648</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04413664719847746</v>
+        <v>0.0402649146384959</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07894465365227826</v>
+        <v>0.07936003999590738</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07298858892189648</v>
+        <v>0.07537766486584796</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07384417432078283</v>
+        <v>0.0707439793520009</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0551705714500452</v>
+        <v>0.05605365568984748</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0509923963148197</v>
+        <v>0.05038518135011867</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04175602292752172</v>
+        <v>0.04167225720455778</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03906600753184323</v>
+        <v>0.03925666719283102</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04497233213435026</v>
+        <v>0.04372342522652671</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01569138074800846</v>
+        <v>0.01466693715242377</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.006009254774088368</v>
+        <v>0.005512869234187984</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.006582379265439484</v>
+        <v>0.006556397061458641</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01003821666159078</v>
+        <v>0.009769949114937608</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04130676340096951</v>
+        <v>0.04202805919476132</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05117875595055525</v>
+        <v>0.05022959757698216</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02050057197941584</v>
+        <v>0.02158038113035206</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03606454184058278</v>
+        <v>0.03530060441922839</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03098188166710348</v>
+        <v>0.03050072429994948</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03028520042236226</v>
+        <v>0.03015601911160824</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01563359961295604</v>
+        <v>0.01577029957390875</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02534758676283448</v>
+        <v>0.02458064990447431</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03775727959332454</v>
+        <v>0.03798660523175505</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01971276825775223</v>
+        <v>0.02024737218065199</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0202597799700325</v>
+        <v>0.02046432693661722</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02468755681175093</v>
+        <v>0.02501229706268107</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07336576984417541</v>
+        <v>0.07405893535948628</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08378734445974273</v>
+        <v>0.08161256940757222</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04264814060679573</v>
+        <v>0.04483002726156855</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05640946722737256</v>
+        <v>0.0549825729652078</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05022059464485847</v>
+        <v>0.04932987769548242</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04802066969340269</v>
+        <v>0.04831161681094746</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02931784006599248</v>
+        <v>0.02969389369918708</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03753332290819852</v>
+        <v>0.03666575619947088</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.027371597732941</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.03746413091463478</v>
+        <v>0.03746413091463479</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.007790845721778359</v>
+        <v>0.008211936069745509</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.007897032800031201</v>
+        <v>0.006995474811312405</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.008392921530919072</v>
+        <v>0.008149214785251529</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01622359913899342</v>
+        <v>0.01531141642444508</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03709489883791082</v>
+        <v>0.0384539477931359</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04457133120974605</v>
+        <v>0.04539863485351848</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0274120820420134</v>
+        <v>0.02587373209901019</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03592217553731449</v>
+        <v>0.03601877715505031</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02673465450865254</v>
+        <v>0.02629211347999666</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02880119010432175</v>
+        <v>0.02978572554166896</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01925698020366965</v>
+        <v>0.02015211926505709</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02912435506050859</v>
+        <v>0.02853350908974423</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03279602962267034</v>
+        <v>0.03176839753607071</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03514287777983813</v>
+        <v>0.03361615649689479</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02697733300717723</v>
+        <v>0.02883872654937531</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04202549913683919</v>
+        <v>0.04124050080139615</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07145496737322921</v>
+        <v>0.07230317824489108</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07954887327667633</v>
+        <v>0.0820271418072967</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05618313298633781</v>
+        <v>0.05442847377032146</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06286767537392936</v>
+        <v>0.06196600373556943</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04810078389043423</v>
+        <v>0.04665715450732848</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05105290482194075</v>
+        <v>0.05133085062383537</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03717325249000351</v>
+        <v>0.03693239317981706</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04740677075491314</v>
+        <v>0.04735541745240601</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.03246610981864654</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.04786011643068662</v>
+        <v>0.04786011643068663</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01806872944749038</v>
+        <v>0.01742387722116031</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0100707348748897</v>
+        <v>0.009460221837196954</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.009240180580307705</v>
+        <v>0.009387740929396119</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01341872654129221</v>
+        <v>0.01336696328870596</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03541750911041857</v>
+        <v>0.03558540707406973</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04448023530454446</v>
+        <v>0.04503712101248383</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03616027737463814</v>
+        <v>0.03527802131963011</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05983346286902624</v>
+        <v>0.06074856252340294</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02932285619020954</v>
+        <v>0.03007928442938218</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0303311603938994</v>
+        <v>0.0301371760940449</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02507176114236122</v>
+        <v>0.02539892958038866</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04002913302193486</v>
+        <v>0.04017680229116437</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03869635571531715</v>
+        <v>0.0381491193519545</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02649545365235727</v>
+        <v>0.02700173612069786</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02463011548149331</v>
+        <v>0.02538876611098695</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03086750662913881</v>
+        <v>0.03104302441749015</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06065517414886199</v>
+        <v>0.06223041621459851</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07340594493921275</v>
+        <v>0.07430317960618085</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06426962884399415</v>
+        <v>0.0636505950962715</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08681779299761727</v>
+        <v>0.08724105119779556</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04549652975376376</v>
+        <v>0.04523498858326312</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04819896980873254</v>
+        <v>0.04896392820816081</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04045416857996039</v>
+        <v>0.04113454617050477</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.05672249037580848</v>
+        <v>0.05646864192527936</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01787624841270709</v>
+        <v>0.0173388800541074</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.009515053600464606</v>
+        <v>0.00930292856154942</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.009026479037089185</v>
+        <v>0.009242280838390963</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01750095081419149</v>
+        <v>0.01740374855571909</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04634489438971721</v>
+        <v>0.04526609960611089</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05271082209420064</v>
+        <v>0.05254052173751511</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.035251451864123</v>
+        <v>0.03493270032981925</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04781439752896498</v>
+        <v>0.04782308958323538</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03373898616079787</v>
+        <v>0.03384077625063487</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03280342163685292</v>
+        <v>0.0324429455565006</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0240652401626078</v>
+        <v>0.02392903685933381</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0344623917043537</v>
+        <v>0.03450654779983976</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0288765491678696</v>
+        <v>0.0278258246201784</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01792620202957717</v>
+        <v>0.01793182119195608</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01727313978615082</v>
+        <v>0.01692991018938545</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02747710060656051</v>
+        <v>0.02716706829890591</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06146344848268166</v>
+        <v>0.06053652538851954</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06945415756656906</v>
+        <v>0.06928702712434376</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04895396728801372</v>
+        <v>0.04901533423396617</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06004761908896834</v>
+        <v>0.05993935262044658</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04276052137304136</v>
+        <v>0.04289754052789286</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04200041994124094</v>
+        <v>0.04131932100474935</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03192150359104742</v>
+        <v>0.03177723846703377</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04226908147735559</v>
+        <v>0.04222967312488109</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7092</v>
+        <v>7143</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1790</v>
+        <v>1973</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>12252</v>
+        <v>12187</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>30176</v>
+        <v>29651</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>25782</v>
+        <v>26300</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>25038</v>
+        <v>23951</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>24530</v>
+        <v>25539</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>40681</v>
+        <v>41342</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>31133</v>
+        <v>32012</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>27711</v>
+        <v>27969</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>40740</v>
+        <v>40332</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>22820</v>
+        <v>23007</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>11590</v>
+        <v>10879</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>10204</v>
+        <v>11119</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>30464</v>
+        <v>27791</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>54342</v>
+        <v>54628</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>50533</v>
+        <v>52187</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>49685</v>
+        <v>47599</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>40428</v>
+        <v>41075</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>70438</v>
+        <v>69599</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>58170</v>
+        <v>58054</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>52647</v>
+        <v>52904</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>63995</v>
+        <v>62218</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>15092</v>
+        <v>14107</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6117</v>
+        <v>5612</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6730</v>
+        <v>6703</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>10529</v>
+        <v>10248</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>40001</v>
+        <v>40700</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>52600</v>
+        <v>51625</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>21380</v>
+        <v>22506</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>38619</v>
+        <v>37801</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>59801</v>
+        <v>58872</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>61955</v>
+        <v>61691</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>32289</v>
+        <v>32571</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>53731</v>
+        <v>52105</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>36315</v>
+        <v>36536</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>20067</v>
+        <v>20611</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>20714</v>
+        <v>20923</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>25895</v>
+        <v>26236</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>71047</v>
+        <v>71718</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>86115</v>
+        <v>83879</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>44478</v>
+        <v>46754</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>60405</v>
+        <v>58877</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>96935</v>
+        <v>95216</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>98237</v>
+        <v>98832</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>60551</v>
+        <v>61328</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>79561</v>
+        <v>77722</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5286</v>
+        <v>5572</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5974</v>
+        <v>5292</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6375</v>
+        <v>6190</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>13013</v>
+        <v>12281</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>25367</v>
+        <v>26296</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>34600</v>
+        <v>35242</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>21519</v>
+        <v>20311</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>29157</v>
+        <v>29235</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>36422</v>
+        <v>35819</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>44147</v>
+        <v>45656</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>29744</v>
+        <v>31126</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>46999</v>
+        <v>46046</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>22252</v>
+        <v>21555</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>26587</v>
+        <v>25432</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20491</v>
+        <v>21905</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>33708</v>
+        <v>33078</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>48864</v>
+        <v>49444</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>61752</v>
+        <v>63676</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>44104</v>
+        <v>42727</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>51027</v>
+        <v>50296</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>65530</v>
+        <v>63563</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>78255</v>
+        <v>78681</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>57416</v>
+        <v>57044</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>76503</v>
+        <v>76420</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>17025</v>
+        <v>16417</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9506</v>
+        <v>8930</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>8663</v>
+        <v>8802</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>13285</v>
+        <v>13234</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>36785</v>
+        <v>36959</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>46602</v>
+        <v>47185</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>37743</v>
+        <v>36822</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>66836</v>
+        <v>67858</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>58084</v>
+        <v>59582</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>60409</v>
+        <v>60022</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>49676</v>
+        <v>50324</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>84345</v>
+        <v>84656</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>36461</v>
+        <v>35945</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>25010</v>
+        <v>25488</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>23092</v>
+        <v>23804</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>30561</v>
+        <v>30735</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>62997</v>
+        <v>64633</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>76907</v>
+        <v>77847</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>67083</v>
+        <v>66437</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>96978</v>
+        <v>97451</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>90121</v>
+        <v>89603</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>95995</v>
+        <v>97518</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>80154</v>
+        <v>81502</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>119520</v>
+        <v>118985</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>58554</v>
+        <v>56794</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>32534</v>
+        <v>31808</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>30639</v>
+        <v>31372</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>61801</v>
+        <v>61458</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>156609</v>
+        <v>152963</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>186812</v>
+        <v>186209</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>124950</v>
+        <v>123820</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>178458</v>
+        <v>178491</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>224524</v>
+        <v>225201</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>228419</v>
+        <v>225909</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>166986</v>
+        <v>166041</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>250321</v>
+        <v>250642</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>94586</v>
+        <v>91144</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>61293</v>
+        <v>61312</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>58631</v>
+        <v>57466</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>97029</v>
+        <v>95935</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>207697</v>
+        <v>204565</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>246152</v>
+        <v>245560</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>173519</v>
+        <v>173737</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>224117</v>
+        <v>223712</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>284559</v>
+        <v>285471</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>292461</v>
+        <v>287718</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>221500</v>
+        <v>220499</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>307025</v>
+        <v>306739</v>
       </c>
     </row>
     <row r="24">
